--- a/trunk/documentation/1.0 Requirements/Traceability Matrix Template.xlsx
+++ b/trunk/documentation/1.0 Requirements/Traceability Matrix Template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Program</t>
   </si>
@@ -80,13 +80,7 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Implementation</t>
-  </si>
-  <si>
     <t>Reference Document</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>functional</t>
@@ -116,32 +110,67 @@
     <t>No functional</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>The PLL is going to work at 48MHhz with configurable XTAL from (4MHz to 16MHz)</t>
   </si>
   <si>
     <t>The OS tick is going to be configurable</t>
   </si>
   <si>
-    <t>6</t>
+    <t>0.0</t>
   </si>
   <si>
-    <t>7</t>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.0,0.1</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Not apply</t>
+  </si>
+  <si>
+    <t>OS Tick</t>
+  </si>
+  <si>
+    <t>Sergio
+Esteban
+Miguel</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Sistemas Operativos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -185,6 +214,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -224,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -374,6 +410,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -381,7 +430,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,6 +474,36 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -458,35 +537,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -494,6 +552,327 @@
     <cellStyle name="Personal" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -517,6 +896,44 @@
         </patternFill>
       </fill>
       <alignment textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -593,7 +1010,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -607,365 +1024,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1018,7 +1076,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>358589</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>414457</xdr:rowOff>
+      <xdr:rowOff>316406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,21 +1108,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:L51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:L51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
   <autoFilter ref="A7:L51"/>
   <tableColumns count="12">
-    <tableColumn id="1" name=" " dataDxfId="11"/>
-    <tableColumn id="2" name="Req. ID" dataDxfId="1"/>
+    <tableColumn id="1" name=" " dataDxfId="12"/>
+    <tableColumn id="2" name="Req. ID" dataDxfId="11"/>
     <tableColumn id="3" name="Req. Type" dataDxfId="10"/>
-    <tableColumn id="4" name="Requirements" dataDxfId="0"/>
-    <tableColumn id="5" name="Implementation" dataDxfId="9"/>
-    <tableColumn id="6" name="Comments" dataDxfId="8"/>
-    <tableColumn id="7" name="Document Reference" dataDxfId="7"/>
-    <tableColumn id="8" name="Comments2" dataDxfId="6"/>
-    <tableColumn id="9" name="File Reference" dataDxfId="5"/>
-    <tableColumn id="11" name="Comments3" dataDxfId="4"/>
-    <tableColumn id="12" name="Test Case Reference" dataDxfId="3"/>
-    <tableColumn id="13" name="Result" dataDxfId="2"/>
+    <tableColumn id="4" name="Requirements" dataDxfId="9"/>
+    <tableColumn id="5" name="Esteban" dataDxfId="8"/>
+    <tableColumn id="6" name="Comments" dataDxfId="7"/>
+    <tableColumn id="7" name="Document Reference" dataDxfId="6"/>
+    <tableColumn id="8" name="Comments2" dataDxfId="5"/>
+    <tableColumn id="9" name="File Reference" dataDxfId="4"/>
+    <tableColumn id="11" name="Comments3" dataDxfId="3"/>
+    <tableColumn id="12" name="Test Case Reference" dataDxfId="2"/>
+    <tableColumn id="13" name="Result" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1360,17 +1418,17 @@
   </sheetPr>
   <dimension ref="A1:IF65363"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="23" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" style="28" customWidth="1"/>
     <col min="5" max="5" width="31" style="10" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="62.28515625" style="10" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="32.7109375" style="11" bestFit="1" customWidth="1" outlineLevel="1"/>
@@ -1383,9 +1441,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" thickBot="1">
-      <c r="B1" s="31"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="35"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1395,13 +1453,15 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1" thickTop="1">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1410,13 +1470,15 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1425,11 +1487,11 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="2"/>
@@ -1439,14 +1501,16 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="37.9" customHeight="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="45">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
       <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1454,45 +1518,47 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="43.9" customHeight="1" thickBot="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="41" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="26"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="16.5" thickTop="1">
       <c r="A7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>4</v>
@@ -1518,56 +1584,66 @@
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="30" t="s">
-        <v>22</v>
+      <c r="B8" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>24</v>
+      <c r="D8" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
-        <v>25</v>
+      <c r="E8" s="14" t="s">
+        <v>46</v>
       </c>
+      <c r="F8" s="40"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
+      <c r="K8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="30">
-        <v>1</v>
+      <c r="B9" s="19" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="K9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1">
       <c r="A10" s="12"/>
-      <c r="B10" s="30">
-        <v>2</v>
+      <c r="B10" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>27</v>
+      <c r="D10" s="26" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1575,19 +1651,23 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
+      <c r="K10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1">
       <c r="A11" s="12"/>
-      <c r="B11" s="30" t="s">
-        <v>32</v>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>28</v>
+      <c r="D11" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1595,19 +1675,23 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
+      <c r="K11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="30" t="s">
-        <v>33</v>
+      <c r="B12" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>29</v>
+      <c r="D12" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1615,19 +1699,23 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="K12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1">
       <c r="A13" s="12"/>
-      <c r="B13" s="30" t="s">
-        <v>34</v>
+      <c r="B13" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>30</v>
+      <c r="D13" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -1635,19 +1723,23 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="K13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="30.75">
       <c r="A14" s="12"/>
-      <c r="B14" s="30" t="s">
-        <v>37</v>
+      <c r="B14" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="D14" s="37" t="s">
-        <v>35</v>
+      <c r="D14" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -1655,19 +1747,23 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+      <c r="K14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1">
       <c r="A15" s="12"/>
-      <c r="B15" s="30" t="s">
-        <v>38</v>
+      <c r="B15" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>36</v>
+      <c r="D15" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1675,14 +1771,18 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+      <c r="K15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15" s="42" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="30"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
@@ -1694,9 +1794,9 @@
     </row>
     <row r="17" spans="1:12" s="4" customFormat="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="30"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
@@ -1708,9 +1808,9 @@
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="30"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="26"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
@@ -1722,9 +1822,9 @@
     </row>
     <row r="19" spans="1:12" s="4" customFormat="1">
       <c r="A19" s="12"/>
-      <c r="B19" s="30"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
@@ -1736,9 +1836,9 @@
     </row>
     <row r="20" spans="1:12" s="4" customFormat="1">
       <c r="A20" s="12"/>
-      <c r="B20" s="30"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
@@ -1750,9 +1850,9 @@
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1">
       <c r="A21" s="12"/>
-      <c r="B21" s="30"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
@@ -1764,9 +1864,9 @@
     </row>
     <row r="22" spans="1:12" s="4" customFormat="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="30"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="26"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
@@ -1778,9 +1878,9 @@
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="30"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="37"/>
+      <c r="D23" s="26"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
@@ -1792,9 +1892,9 @@
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="30"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="37"/>
+      <c r="D24" s="26"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
@@ -1806,9 +1906,9 @@
     </row>
     <row r="25" spans="1:12" s="4" customFormat="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="30"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="37"/>
+      <c r="D25" s="26"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
@@ -1820,9 +1920,9 @@
     </row>
     <row r="26" spans="1:12" s="4" customFormat="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="30"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="37"/>
+      <c r="D26" s="26"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
@@ -1834,9 +1934,9 @@
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="30"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="13"/>
-      <c r="D27" s="37"/>
+      <c r="D27" s="26"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
@@ -1848,9 +1948,9 @@
     </row>
     <row r="28" spans="1:12" s="4" customFormat="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="30"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="26"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
@@ -1862,9 +1962,9 @@
     </row>
     <row r="29" spans="1:12" s="4" customFormat="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="30"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="26"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
@@ -1876,9 +1976,9 @@
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="30"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="37"/>
+      <c r="D30" s="26"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
@@ -1890,9 +1990,9 @@
     </row>
     <row r="31" spans="1:12" s="4" customFormat="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="30"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="37"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
@@ -1904,9 +2004,9 @@
     </row>
     <row r="32" spans="1:12" s="4" customFormat="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="30"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="37"/>
+      <c r="D32" s="26"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
@@ -1918,9 +2018,9 @@
     </row>
     <row r="33" spans="1:12" s="4" customFormat="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="30"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="37"/>
+      <c r="D33" s="26"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
@@ -1932,9 +2032,9 @@
     </row>
     <row r="34" spans="1:12" s="4" customFormat="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="30"/>
+      <c r="B34" s="19"/>
       <c r="C34" s="13"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="26"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
@@ -1946,9 +2046,9 @@
     </row>
     <row r="35" spans="1:12" s="4" customFormat="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="30"/>
+      <c r="B35" s="19"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="37"/>
+      <c r="D35" s="26"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
@@ -1960,9 +2060,9 @@
     </row>
     <row r="36" spans="1:12" s="4" customFormat="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="30"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="37"/>
+      <c r="D36" s="26"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
@@ -1974,9 +2074,9 @@
     </row>
     <row r="37" spans="1:12" s="4" customFormat="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="30"/>
+      <c r="B37" s="19"/>
       <c r="C37" s="13"/>
-      <c r="D37" s="37"/>
+      <c r="D37" s="26"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
@@ -1988,9 +2088,9 @@
     </row>
     <row r="38" spans="1:12" s="4" customFormat="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="30"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="37"/>
+      <c r="D38" s="26"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
@@ -2002,9 +2102,9 @@
     </row>
     <row r="39" spans="1:12" s="4" customFormat="1">
       <c r="A39" s="12"/>
-      <c r="B39" s="30"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="37"/>
+      <c r="D39" s="26"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
@@ -2016,9 +2116,9 @@
     </row>
     <row r="40" spans="1:12" s="4" customFormat="1">
       <c r="A40" s="12"/>
-      <c r="B40" s="30"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="37"/>
+      <c r="D40" s="26"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
@@ -2030,9 +2130,9 @@
     </row>
     <row r="41" spans="1:12" s="4" customFormat="1">
       <c r="A41" s="12"/>
-      <c r="B41" s="30"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="37"/>
+      <c r="D41" s="26"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
@@ -2044,9 +2144,9 @@
     </row>
     <row r="42" spans="1:12" s="4" customFormat="1">
       <c r="A42" s="12"/>
-      <c r="B42" s="30"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="37"/>
+      <c r="D42" s="26"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
@@ -2058,9 +2158,9 @@
     </row>
     <row r="43" spans="1:12" s="4" customFormat="1">
       <c r="A43" s="12"/>
-      <c r="B43" s="30"/>
+      <c r="B43" s="19"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="37"/>
+      <c r="D43" s="26"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
@@ -2072,9 +2172,9 @@
     </row>
     <row r="44" spans="1:12" s="4" customFormat="1">
       <c r="A44" s="12"/>
-      <c r="B44" s="30"/>
+      <c r="B44" s="19"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
@@ -2086,9 +2186,9 @@
     </row>
     <row r="45" spans="1:12" s="4" customFormat="1">
       <c r="A45" s="12"/>
-      <c r="B45" s="30"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="37"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
@@ -2100,9 +2200,9 @@
     </row>
     <row r="46" spans="1:12" s="4" customFormat="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="30"/>
+      <c r="B46" s="19"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="37"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
@@ -2114,9 +2214,9 @@
     </row>
     <row r="47" spans="1:12" s="4" customFormat="1">
       <c r="A47" s="12"/>
-      <c r="B47" s="30"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="37"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
@@ -2128,9 +2228,9 @@
     </row>
     <row r="48" spans="1:12" s="4" customFormat="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="30"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="37"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
@@ -2142,9 +2242,9 @@
     </row>
     <row r="49" spans="1:12" s="4" customFormat="1">
       <c r="A49" s="12"/>
-      <c r="B49" s="30"/>
+      <c r="B49" s="19"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="37"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
@@ -2156,9 +2256,9 @@
     </row>
     <row r="50" spans="1:12" s="4" customFormat="1">
       <c r="A50" s="12"/>
-      <c r="B50" s="30"/>
+      <c r="B50" s="19"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="37"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
@@ -2170,9 +2270,9 @@
     </row>
     <row r="51" spans="1:12" s="4" customFormat="1">
       <c r="A51" s="12"/>
-      <c r="B51" s="30"/>
+      <c r="B51" s="19"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="37"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
@@ -2183,9 +2283,9 @@
       <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" s="4" customFormat="1">
-      <c r="B52" s="33"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="38"/>
+      <c r="D52" s="27"/>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
@@ -2194,9 +2294,9 @@
       <c r="J52" s="7"/>
     </row>
     <row r="53" spans="1:12" s="4" customFormat="1">
-      <c r="B53" s="33"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="38"/>
+      <c r="D53" s="27"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
@@ -2205,9 +2305,9 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:12" s="4" customFormat="1">
-      <c r="B54" s="33"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="38"/>
+      <c r="D54" s="27"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
@@ -2216,9 +2316,9 @@
       <c r="J54" s="7"/>
     </row>
     <row r="55" spans="1:12" s="4" customFormat="1">
-      <c r="B55" s="33"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="38"/>
+      <c r="D55" s="27"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
@@ -2227,9 +2327,9 @@
       <c r="J55" s="7"/>
     </row>
     <row r="56" spans="1:12" s="4" customFormat="1">
-      <c r="B56" s="33"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="38"/>
+      <c r="D56" s="27"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
@@ -2238,9 +2338,9 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:12" s="4" customFormat="1">
-      <c r="B57" s="33"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="38"/>
+      <c r="D57" s="27"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
@@ -2249,9 +2349,9 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:12" s="4" customFormat="1">
-      <c r="B58" s="33"/>
+      <c r="B58" s="22"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="38"/>
+      <c r="D58" s="27"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
@@ -2260,9 +2360,9 @@
       <c r="J58" s="7"/>
     </row>
     <row r="59" spans="1:12" s="4" customFormat="1">
-      <c r="B59" s="33"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="38"/>
+      <c r="D59" s="27"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
@@ -2271,9 +2371,9 @@
       <c r="J59" s="7"/>
     </row>
     <row r="60" spans="1:12" s="4" customFormat="1">
-      <c r="B60" s="33"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="38"/>
+      <c r="D60" s="27"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
@@ -2282,9 +2382,9 @@
       <c r="J60" s="7"/>
     </row>
     <row r="61" spans="1:12" s="4" customFormat="1">
-      <c r="B61" s="33"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="38"/>
+      <c r="D61" s="27"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
@@ -2293,9 +2393,9 @@
       <c r="J61" s="7"/>
     </row>
     <row r="62" spans="1:12" s="4" customFormat="1">
-      <c r="B62" s="33"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="38"/>
+      <c r="D62" s="27"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
@@ -2304,9 +2404,9 @@
       <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:12" s="4" customFormat="1">
-      <c r="B63" s="33"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="38"/>
+      <c r="D63" s="27"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
@@ -2315,9 +2415,9 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:12" s="4" customFormat="1">
-      <c r="B64" s="33"/>
+      <c r="B64" s="22"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="38"/>
+      <c r="D64" s="27"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
@@ -2326,9 +2426,9 @@
       <c r="J64" s="7"/>
     </row>
     <row r="65" spans="2:10" s="4" customFormat="1">
-      <c r="B65" s="33"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="38"/>
+      <c r="D65" s="27"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
@@ -2337,9 +2437,9 @@
       <c r="J65" s="7"/>
     </row>
     <row r="66" spans="2:10" s="4" customFormat="1">
-      <c r="B66" s="33"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="38"/>
+      <c r="D66" s="27"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
@@ -2348,9 +2448,9 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="2:10" s="4" customFormat="1">
-      <c r="B67" s="33"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="38"/>
+      <c r="D67" s="27"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
@@ -2359,9 +2459,9 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="2:10" s="4" customFormat="1">
-      <c r="B68" s="33"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="38"/>
+      <c r="D68" s="27"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
@@ -2370,9 +2470,9 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="2:10" s="4" customFormat="1">
-      <c r="B69" s="33"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="38"/>
+      <c r="D69" s="27"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
@@ -2381,9 +2481,9 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="2:10" s="4" customFormat="1">
-      <c r="B70" s="33"/>
+      <c r="B70" s="22"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="38"/>
+      <c r="D70" s="27"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
@@ -2392,9 +2492,9 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="2:10" s="4" customFormat="1">
-      <c r="B71" s="33"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="38"/>
+      <c r="D71" s="27"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
@@ -2403,9 +2503,9 @@
       <c r="J71" s="7"/>
     </row>
     <row r="72" spans="2:10" s="4" customFormat="1">
-      <c r="B72" s="33"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="38"/>
+      <c r="D72" s="27"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
@@ -2414,9 +2514,9 @@
       <c r="J72" s="7"/>
     </row>
     <row r="73" spans="2:10" s="4" customFormat="1">
-      <c r="B73" s="33"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="38"/>
+      <c r="D73" s="27"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
@@ -2425,9 +2525,9 @@
       <c r="J73" s="7"/>
     </row>
     <row r="74" spans="2:10" s="4" customFormat="1">
-      <c r="B74" s="33"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="38"/>
+      <c r="D74" s="27"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
@@ -2436,9 +2536,9 @@
       <c r="J74" s="7"/>
     </row>
     <row r="75" spans="2:10" s="4" customFormat="1">
-      <c r="B75" s="33"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="38"/>
+      <c r="D75" s="27"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
@@ -2447,9 +2547,9 @@
       <c r="J75" s="7"/>
     </row>
     <row r="76" spans="2:10" s="4" customFormat="1">
-      <c r="B76" s="33"/>
+      <c r="B76" s="22"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="38"/>
+      <c r="D76" s="27"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
@@ -2458,9 +2558,9 @@
       <c r="J76" s="7"/>
     </row>
     <row r="77" spans="2:10" s="4" customFormat="1">
-      <c r="B77" s="33"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="38"/>
+      <c r="D77" s="27"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
@@ -2469,9 +2569,9 @@
       <c r="J77" s="7"/>
     </row>
     <row r="78" spans="2:10" s="4" customFormat="1">
-      <c r="B78" s="33"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="38"/>
+      <c r="D78" s="27"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
@@ -2480,9 +2580,9 @@
       <c r="J78" s="7"/>
     </row>
     <row r="79" spans="2:10" s="4" customFormat="1">
-      <c r="B79" s="33"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="38"/>
+      <c r="D79" s="27"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
@@ -2491,9 +2591,9 @@
       <c r="J79" s="7"/>
     </row>
     <row r="80" spans="2:10" s="4" customFormat="1">
-      <c r="B80" s="33"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="38"/>
+      <c r="D80" s="27"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
@@ -2502,9 +2602,9 @@
       <c r="J80" s="7"/>
     </row>
     <row r="81" spans="2:10" s="4" customFormat="1">
-      <c r="B81" s="33"/>
+      <c r="B81" s="22"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="38"/>
+      <c r="D81" s="27"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
@@ -2513,9 +2613,9 @@
       <c r="J81" s="7"/>
     </row>
     <row r="82" spans="2:10" s="4" customFormat="1">
-      <c r="B82" s="33"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="38"/>
+      <c r="D82" s="27"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
@@ -2524,9 +2624,9 @@
       <c r="J82" s="7"/>
     </row>
     <row r="83" spans="2:10" s="4" customFormat="1">
-      <c r="B83" s="33"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="38"/>
+      <c r="D83" s="27"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
@@ -2535,9 +2635,9 @@
       <c r="J83" s="7"/>
     </row>
     <row r="84" spans="2:10" s="4" customFormat="1">
-      <c r="B84" s="33"/>
+      <c r="B84" s="22"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="38"/>
+      <c r="D84" s="27"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
@@ -2546,9 +2646,9 @@
       <c r="J84" s="7"/>
     </row>
     <row r="85" spans="2:10" s="4" customFormat="1">
-      <c r="B85" s="33"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="38"/>
+      <c r="D85" s="27"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
@@ -2557,9 +2657,9 @@
       <c r="J85" s="7"/>
     </row>
     <row r="86" spans="2:10" s="4" customFormat="1">
-      <c r="B86" s="33"/>
+      <c r="B86" s="22"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="38"/>
+      <c r="D86" s="27"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
@@ -2568,9 +2668,9 @@
       <c r="J86" s="7"/>
     </row>
     <row r="87" spans="2:10" s="4" customFormat="1">
-      <c r="B87" s="33"/>
+      <c r="B87" s="22"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="38"/>
+      <c r="D87" s="27"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
@@ -2579,9 +2679,9 @@
       <c r="J87" s="7"/>
     </row>
     <row r="88" spans="2:10" s="4" customFormat="1">
-      <c r="B88" s="33"/>
+      <c r="B88" s="22"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="38"/>
+      <c r="D88" s="27"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
@@ -2590,9 +2690,9 @@
       <c r="J88" s="7"/>
     </row>
     <row r="89" spans="2:10" s="4" customFormat="1">
-      <c r="B89" s="33"/>
+      <c r="B89" s="22"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="38"/>
+      <c r="D89" s="27"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
@@ -2601,9 +2701,9 @@
       <c r="J89" s="7"/>
     </row>
     <row r="90" spans="2:10" s="4" customFormat="1">
-      <c r="B90" s="33"/>
+      <c r="B90" s="22"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="38"/>
+      <c r="D90" s="27"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
@@ -2612,9 +2712,9 @@
       <c r="J90" s="7"/>
     </row>
     <row r="91" spans="2:10" s="4" customFormat="1">
-      <c r="B91" s="33"/>
+      <c r="B91" s="22"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="38"/>
+      <c r="D91" s="27"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
@@ -2623,9 +2723,9 @@
       <c r="J91" s="7"/>
     </row>
     <row r="92" spans="2:10" s="4" customFormat="1">
-      <c r="B92" s="33"/>
+      <c r="B92" s="22"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="38"/>
+      <c r="D92" s="27"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
@@ -2634,9 +2734,9 @@
       <c r="J92" s="7"/>
     </row>
     <row r="93" spans="2:10" s="4" customFormat="1">
-      <c r="B93" s="33"/>
+      <c r="B93" s="22"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="38"/>
+      <c r="D93" s="27"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -2645,9 +2745,9 @@
       <c r="J93" s="7"/>
     </row>
     <row r="94" spans="2:10" s="4" customFormat="1">
-      <c r="B94" s="33"/>
+      <c r="B94" s="22"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="38"/>
+      <c r="D94" s="27"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
@@ -2656,9 +2756,9 @@
       <c r="J94" s="7"/>
     </row>
     <row r="95" spans="2:10" s="4" customFormat="1">
-      <c r="B95" s="33"/>
+      <c r="B95" s="22"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="38"/>
+      <c r="D95" s="27"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
       <c r="G95" s="7"/>
@@ -2667,9 +2767,9 @@
       <c r="J95" s="7"/>
     </row>
     <row r="96" spans="2:10" s="4" customFormat="1">
-      <c r="B96" s="33"/>
+      <c r="B96" s="22"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="38"/>
+      <c r="D96" s="27"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
@@ -2678,9 +2778,9 @@
       <c r="J96" s="7"/>
     </row>
     <row r="97" spans="2:10" s="4" customFormat="1">
-      <c r="B97" s="33"/>
+      <c r="B97" s="22"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="38"/>
+      <c r="D97" s="27"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
@@ -2689,9 +2789,9 @@
       <c r="J97" s="7"/>
     </row>
     <row r="98" spans="2:10" s="4" customFormat="1">
-      <c r="B98" s="33"/>
+      <c r="B98" s="22"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="38"/>
+      <c r="D98" s="27"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
       <c r="G98" s="7"/>
@@ -2700,9 +2800,9 @@
       <c r="J98" s="7"/>
     </row>
     <row r="99" spans="2:10" s="4" customFormat="1">
-      <c r="B99" s="33"/>
+      <c r="B99" s="22"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="38"/>
+      <c r="D99" s="27"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
@@ -2711,9 +2811,9 @@
       <c r="J99" s="7"/>
     </row>
     <row r="100" spans="2:10" s="4" customFormat="1">
-      <c r="B100" s="33"/>
+      <c r="B100" s="22"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="38"/>
+      <c r="D100" s="27"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
@@ -2722,9 +2822,9 @@
       <c r="J100" s="7"/>
     </row>
     <row r="101" spans="2:10" s="4" customFormat="1">
-      <c r="B101" s="33"/>
+      <c r="B101" s="22"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="38"/>
+      <c r="D101" s="27"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
@@ -2733,9 +2833,9 @@
       <c r="J101" s="7"/>
     </row>
     <row r="102" spans="2:10" s="4" customFormat="1">
-      <c r="B102" s="33"/>
+      <c r="B102" s="22"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="38"/>
+      <c r="D102" s="27"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
@@ -2744,9 +2844,9 @@
       <c r="J102" s="7"/>
     </row>
     <row r="103" spans="2:10" s="4" customFormat="1">
-      <c r="B103" s="33"/>
+      <c r="B103" s="22"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="38"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
@@ -2755,9 +2855,9 @@
       <c r="J103" s="7"/>
     </row>
     <row r="104" spans="2:10" s="4" customFormat="1">
-      <c r="B104" s="33"/>
+      <c r="B104" s="22"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="38"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
@@ -2766,9 +2866,9 @@
       <c r="J104" s="7"/>
     </row>
     <row r="105" spans="2:10" s="4" customFormat="1">
-      <c r="B105" s="33"/>
+      <c r="B105" s="22"/>
       <c r="C105" s="5"/>
-      <c r="D105" s="38"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
@@ -2777,9 +2877,9 @@
       <c r="J105" s="7"/>
     </row>
     <row r="106" spans="2:10" s="4" customFormat="1">
-      <c r="B106" s="33"/>
+      <c r="B106" s="22"/>
       <c r="C106" s="5"/>
-      <c r="D106" s="38"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
@@ -2788,9 +2888,9 @@
       <c r="J106" s="7"/>
     </row>
     <row r="107" spans="2:10" s="4" customFormat="1">
-      <c r="B107" s="33"/>
+      <c r="B107" s="22"/>
       <c r="C107" s="5"/>
-      <c r="D107" s="38"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
@@ -2799,9 +2899,9 @@
       <c r="J107" s="7"/>
     </row>
     <row r="108" spans="2:10" s="4" customFormat="1">
-      <c r="B108" s="33"/>
+      <c r="B108" s="22"/>
       <c r="C108" s="5"/>
-      <c r="D108" s="38"/>
+      <c r="D108" s="27"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
@@ -2810,9 +2910,9 @@
       <c r="J108" s="7"/>
     </row>
     <row r="109" spans="2:10" s="4" customFormat="1">
-      <c r="B109" s="33"/>
+      <c r="B109" s="22"/>
       <c r="C109" s="5"/>
-      <c r="D109" s="38"/>
+      <c r="D109" s="27"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
@@ -2821,9 +2921,9 @@
       <c r="J109" s="7"/>
     </row>
     <row r="110" spans="2:10" s="4" customFormat="1">
-      <c r="B110" s="33"/>
+      <c r="B110" s="22"/>
       <c r="C110" s="5"/>
-      <c r="D110" s="38"/>
+      <c r="D110" s="27"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
@@ -2832,9 +2932,9 @@
       <c r="J110" s="7"/>
     </row>
     <row r="111" spans="2:10" s="4" customFormat="1">
-      <c r="B111" s="33"/>
+      <c r="B111" s="22"/>
       <c r="C111" s="5"/>
-      <c r="D111" s="38"/>
+      <c r="D111" s="27"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
@@ -2843,9 +2943,9 @@
       <c r="J111" s="7"/>
     </row>
     <row r="112" spans="2:10" s="4" customFormat="1">
-      <c r="B112" s="33"/>
+      <c r="B112" s="22"/>
       <c r="C112" s="5"/>
-      <c r="D112" s="38"/>
+      <c r="D112" s="27"/>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
@@ -2854,9 +2954,9 @@
       <c r="J112" s="7"/>
     </row>
     <row r="113" spans="2:10" s="4" customFormat="1">
-      <c r="B113" s="33"/>
+      <c r="B113" s="22"/>
       <c r="C113" s="5"/>
-      <c r="D113" s="38"/>
+      <c r="D113" s="27"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
@@ -2865,9 +2965,9 @@
       <c r="J113" s="7"/>
     </row>
     <row r="114" spans="2:10" s="4" customFormat="1">
-      <c r="B114" s="33"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="5"/>
-      <c r="D114" s="38"/>
+      <c r="D114" s="27"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
       <c r="G114" s="7"/>
@@ -2876,9 +2976,9 @@
       <c r="J114" s="7"/>
     </row>
     <row r="115" spans="2:10" s="4" customFormat="1">
-      <c r="B115" s="33"/>
+      <c r="B115" s="22"/>
       <c r="C115" s="5"/>
-      <c r="D115" s="38"/>
+      <c r="D115" s="27"/>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
       <c r="G115" s="7"/>
@@ -2887,9 +2987,9 @@
       <c r="J115" s="7"/>
     </row>
     <row r="116" spans="2:10" s="4" customFormat="1">
-      <c r="B116" s="33"/>
+      <c r="B116" s="22"/>
       <c r="C116" s="5"/>
-      <c r="D116" s="38"/>
+      <c r="D116" s="27"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
@@ -2898,9 +2998,9 @@
       <c r="J116" s="7"/>
     </row>
     <row r="117" spans="2:10" s="4" customFormat="1">
-      <c r="B117" s="33"/>
+      <c r="B117" s="22"/>
       <c r="C117" s="5"/>
-      <c r="D117" s="38"/>
+      <c r="D117" s="27"/>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
@@ -2909,9 +3009,9 @@
       <c r="J117" s="7"/>
     </row>
     <row r="118" spans="2:10" s="4" customFormat="1">
-      <c r="B118" s="33"/>
+      <c r="B118" s="22"/>
       <c r="C118" s="5"/>
-      <c r="D118" s="38"/>
+      <c r="D118" s="27"/>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="7"/>
@@ -2920,9 +3020,9 @@
       <c r="J118" s="7"/>
     </row>
     <row r="119" spans="2:10" s="4" customFormat="1">
-      <c r="B119" s="33"/>
+      <c r="B119" s="22"/>
       <c r="C119" s="5"/>
-      <c r="D119" s="38"/>
+      <c r="D119" s="27"/>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="7"/>
@@ -2931,9 +3031,9 @@
       <c r="J119" s="7"/>
     </row>
     <row r="120" spans="2:10" s="4" customFormat="1">
-      <c r="B120" s="33"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="5"/>
-      <c r="D120" s="38"/>
+      <c r="D120" s="27"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="7"/>
@@ -2942,9 +3042,9 @@
       <c r="J120" s="7"/>
     </row>
     <row r="121" spans="2:10" s="4" customFormat="1">
-      <c r="B121" s="33"/>
+      <c r="B121" s="22"/>
       <c r="C121" s="5"/>
-      <c r="D121" s="38"/>
+      <c r="D121" s="27"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="7"/>
@@ -2953,9 +3053,9 @@
       <c r="J121" s="7"/>
     </row>
     <row r="122" spans="2:10" s="4" customFormat="1">
-      <c r="B122" s="33"/>
+      <c r="B122" s="22"/>
       <c r="C122" s="5"/>
-      <c r="D122" s="38"/>
+      <c r="D122" s="27"/>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="7"/>
@@ -2964,9 +3064,9 @@
       <c r="J122" s="7"/>
     </row>
     <row r="123" spans="2:10" s="4" customFormat="1">
-      <c r="B123" s="33"/>
+      <c r="B123" s="22"/>
       <c r="C123" s="5"/>
-      <c r="D123" s="38"/>
+      <c r="D123" s="27"/>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="7"/>
@@ -2975,9 +3075,9 @@
       <c r="J123" s="7"/>
     </row>
     <row r="124" spans="2:10" s="4" customFormat="1">
-      <c r="B124" s="33"/>
+      <c r="B124" s="22"/>
       <c r="C124" s="5"/>
-      <c r="D124" s="38"/>
+      <c r="D124" s="27"/>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="7"/>
@@ -2986,9 +3086,9 @@
       <c r="J124" s="7"/>
     </row>
     <row r="125" spans="2:10" s="4" customFormat="1">
-      <c r="B125" s="33"/>
+      <c r="B125" s="22"/>
       <c r="C125" s="5"/>
-      <c r="D125" s="38"/>
+      <c r="D125" s="27"/>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="7"/>
@@ -2997,9 +3097,9 @@
       <c r="J125" s="7"/>
     </row>
     <row r="126" spans="2:10" s="4" customFormat="1">
-      <c r="B126" s="33"/>
+      <c r="B126" s="22"/>
       <c r="C126" s="5"/>
-      <c r="D126" s="38"/>
+      <c r="D126" s="27"/>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
       <c r="G126" s="7"/>
@@ -3008,9 +3108,9 @@
       <c r="J126" s="7"/>
     </row>
     <row r="127" spans="2:10" s="4" customFormat="1">
-      <c r="B127" s="33"/>
+      <c r="B127" s="22"/>
       <c r="C127" s="5"/>
-      <c r="D127" s="38"/>
+      <c r="D127" s="27"/>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
@@ -3019,9 +3119,9 @@
       <c r="J127" s="7"/>
     </row>
     <row r="128" spans="2:10" s="4" customFormat="1">
-      <c r="B128" s="33"/>
+      <c r="B128" s="22"/>
       <c r="C128" s="5"/>
-      <c r="D128" s="38"/>
+      <c r="D128" s="27"/>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
@@ -3030,9 +3130,9 @@
       <c r="J128" s="7"/>
     </row>
     <row r="129" spans="2:10" s="4" customFormat="1">
-      <c r="B129" s="33"/>
+      <c r="B129" s="22"/>
       <c r="C129" s="5"/>
-      <c r="D129" s="38"/>
+      <c r="D129" s="27"/>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
@@ -3041,9 +3141,9 @@
       <c r="J129" s="7"/>
     </row>
     <row r="130" spans="2:10" s="4" customFormat="1">
-      <c r="B130" s="33"/>
+      <c r="B130" s="22"/>
       <c r="C130" s="5"/>
-      <c r="D130" s="38"/>
+      <c r="D130" s="27"/>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
       <c r="G130" s="7"/>
@@ -3052,9 +3152,9 @@
       <c r="J130" s="7"/>
     </row>
     <row r="131" spans="2:10" s="4" customFormat="1">
-      <c r="B131" s="33"/>
+      <c r="B131" s="22"/>
       <c r="C131" s="5"/>
-      <c r="D131" s="38"/>
+      <c r="D131" s="27"/>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
@@ -3063,9 +3163,9 @@
       <c r="J131" s="7"/>
     </row>
     <row r="132" spans="2:10" s="4" customFormat="1">
-      <c r="B132" s="33"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="38"/>
+      <c r="D132" s="27"/>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
       <c r="G132" s="7"/>
@@ -3074,9 +3174,9 @@
       <c r="J132" s="7"/>
     </row>
     <row r="133" spans="2:10" s="4" customFormat="1">
-      <c r="B133" s="33"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="5"/>
-      <c r="D133" s="38"/>
+      <c r="D133" s="27"/>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
       <c r="G133" s="7"/>
@@ -3085,9 +3185,9 @@
       <c r="J133" s="7"/>
     </row>
     <row r="134" spans="2:10" s="4" customFormat="1">
-      <c r="B134" s="33"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="5"/>
-      <c r="D134" s="38"/>
+      <c r="D134" s="27"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
       <c r="G134" s="7"/>
@@ -3096,9 +3196,9 @@
       <c r="J134" s="7"/>
     </row>
     <row r="135" spans="2:10" s="4" customFormat="1">
-      <c r="B135" s="33"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="5"/>
-      <c r="D135" s="38"/>
+      <c r="D135" s="27"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
@@ -3107,9 +3207,9 @@
       <c r="J135" s="7"/>
     </row>
     <row r="136" spans="2:10" s="4" customFormat="1">
-      <c r="B136" s="33"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="5"/>
-      <c r="D136" s="38"/>
+      <c r="D136" s="27"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
@@ -3118,9 +3218,9 @@
       <c r="J136" s="7"/>
     </row>
     <row r="137" spans="2:10" s="4" customFormat="1">
-      <c r="B137" s="33"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="5"/>
-      <c r="D137" s="38"/>
+      <c r="D137" s="27"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
@@ -3129,9 +3229,9 @@
       <c r="J137" s="7"/>
     </row>
     <row r="138" spans="2:10" s="4" customFormat="1">
-      <c r="B138" s="33"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="5"/>
-      <c r="D138" s="38"/>
+      <c r="D138" s="27"/>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
@@ -3140,9 +3240,9 @@
       <c r="J138" s="7"/>
     </row>
     <row r="139" spans="2:10" s="4" customFormat="1">
-      <c r="B139" s="33"/>
+      <c r="B139" s="22"/>
       <c r="C139" s="5"/>
-      <c r="D139" s="38"/>
+      <c r="D139" s="27"/>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
@@ -3151,9 +3251,9 @@
       <c r="J139" s="7"/>
     </row>
     <row r="140" spans="2:10" s="4" customFormat="1">
-      <c r="B140" s="33"/>
+      <c r="B140" s="22"/>
       <c r="C140" s="5"/>
-      <c r="D140" s="38"/>
+      <c r="D140" s="27"/>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
@@ -3162,9 +3262,9 @@
       <c r="J140" s="7"/>
     </row>
     <row r="141" spans="2:10" s="4" customFormat="1">
-      <c r="B141" s="33"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="5"/>
-      <c r="D141" s="38"/>
+      <c r="D141" s="27"/>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
@@ -3173,9 +3273,9 @@
       <c r="J141" s="7"/>
     </row>
     <row r="142" spans="2:10" s="4" customFormat="1">
-      <c r="B142" s="33"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="5"/>
-      <c r="D142" s="38"/>
+      <c r="D142" s="27"/>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
@@ -3184,9 +3284,9 @@
       <c r="J142" s="7"/>
     </row>
     <row r="143" spans="2:10" s="4" customFormat="1">
-      <c r="B143" s="33"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="5"/>
-      <c r="D143" s="38"/>
+      <c r="D143" s="27"/>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
@@ -3195,9 +3295,9 @@
       <c r="J143" s="7"/>
     </row>
     <row r="144" spans="2:10" s="4" customFormat="1">
-      <c r="B144" s="33"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="5"/>
-      <c r="D144" s="38"/>
+      <c r="D144" s="27"/>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
@@ -3206,9 +3306,9 @@
       <c r="J144" s="7"/>
     </row>
     <row r="145" spans="2:10" s="4" customFormat="1">
-      <c r="B145" s="33"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="5"/>
-      <c r="D145" s="38"/>
+      <c r="D145" s="27"/>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
@@ -3217,9 +3317,9 @@
       <c r="J145" s="7"/>
     </row>
     <row r="146" spans="2:10" s="4" customFormat="1">
-      <c r="B146" s="33"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="5"/>
-      <c r="D146" s="38"/>
+      <c r="D146" s="27"/>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
@@ -3228,9 +3328,9 @@
       <c r="J146" s="7"/>
     </row>
     <row r="147" spans="2:10" s="4" customFormat="1">
-      <c r="B147" s="33"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="5"/>
-      <c r="D147" s="38"/>
+      <c r="D147" s="27"/>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
@@ -3239,9 +3339,9 @@
       <c r="J147" s="7"/>
     </row>
     <row r="148" spans="2:10" s="4" customFormat="1">
-      <c r="B148" s="33"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="5"/>
-      <c r="D148" s="38"/>
+      <c r="D148" s="27"/>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
@@ -3250,9 +3350,9 @@
       <c r="J148" s="7"/>
     </row>
     <row r="149" spans="2:10" s="4" customFormat="1">
-      <c r="B149" s="33"/>
+      <c r="B149" s="22"/>
       <c r="C149" s="5"/>
-      <c r="D149" s="38"/>
+      <c r="D149" s="27"/>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
@@ -3261,9 +3361,9 @@
       <c r="J149" s="7"/>
     </row>
     <row r="150" spans="2:10" s="4" customFormat="1">
-      <c r="B150" s="33"/>
+      <c r="B150" s="22"/>
       <c r="C150" s="5"/>
-      <c r="D150" s="38"/>
+      <c r="D150" s="27"/>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
@@ -3272,9 +3372,9 @@
       <c r="J150" s="7"/>
     </row>
     <row r="151" spans="2:10" s="4" customFormat="1">
-      <c r="B151" s="33"/>
+      <c r="B151" s="22"/>
       <c r="C151" s="5"/>
-      <c r="D151" s="38"/>
+      <c r="D151" s="27"/>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
@@ -3283,9 +3383,9 @@
       <c r="J151" s="7"/>
     </row>
     <row r="152" spans="2:10" s="4" customFormat="1">
-      <c r="B152" s="33"/>
+      <c r="B152" s="22"/>
       <c r="C152" s="5"/>
-      <c r="D152" s="38"/>
+      <c r="D152" s="27"/>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
@@ -3294,9 +3394,9 @@
       <c r="J152" s="7"/>
     </row>
     <row r="153" spans="2:10" s="4" customFormat="1">
-      <c r="B153" s="33"/>
+      <c r="B153" s="22"/>
       <c r="C153" s="5"/>
-      <c r="D153" s="38"/>
+      <c r="D153" s="27"/>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
@@ -3305,9 +3405,9 @@
       <c r="J153" s="7"/>
     </row>
     <row r="154" spans="2:10" s="4" customFormat="1">
-      <c r="B154" s="33"/>
+      <c r="B154" s="22"/>
       <c r="C154" s="5"/>
-      <c r="D154" s="38"/>
+      <c r="D154" s="27"/>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
@@ -3316,9 +3416,9 @@
       <c r="J154" s="7"/>
     </row>
     <row r="155" spans="2:10" s="4" customFormat="1">
-      <c r="B155" s="33"/>
+      <c r="B155" s="22"/>
       <c r="C155" s="5"/>
-      <c r="D155" s="38"/>
+      <c r="D155" s="27"/>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
@@ -3327,9 +3427,9 @@
       <c r="J155" s="7"/>
     </row>
     <row r="156" spans="2:10" s="4" customFormat="1">
-      <c r="B156" s="33"/>
+      <c r="B156" s="22"/>
       <c r="C156" s="5"/>
-      <c r="D156" s="38"/>
+      <c r="D156" s="27"/>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
@@ -3338,9 +3438,9 @@
       <c r="J156" s="7"/>
     </row>
     <row r="157" spans="2:10" s="4" customFormat="1">
-      <c r="B157" s="33"/>
+      <c r="B157" s="22"/>
       <c r="C157" s="5"/>
-      <c r="D157" s="38"/>
+      <c r="D157" s="27"/>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
@@ -3349,9 +3449,9 @@
       <c r="J157" s="7"/>
     </row>
     <row r="158" spans="2:10" s="4" customFormat="1">
-      <c r="B158" s="33"/>
+      <c r="B158" s="22"/>
       <c r="C158" s="5"/>
-      <c r="D158" s="38"/>
+      <c r="D158" s="27"/>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
@@ -3360,9 +3460,9 @@
       <c r="J158" s="7"/>
     </row>
     <row r="159" spans="2:10" s="4" customFormat="1">
-      <c r="B159" s="33"/>
+      <c r="B159" s="22"/>
       <c r="C159" s="5"/>
-      <c r="D159" s="38"/>
+      <c r="D159" s="27"/>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
@@ -3371,9 +3471,9 @@
       <c r="J159" s="7"/>
     </row>
     <row r="160" spans="2:10" s="4" customFormat="1">
-      <c r="B160" s="33"/>
+      <c r="B160" s="22"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="38"/>
+      <c r="D160" s="27"/>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
@@ -3382,9 +3482,9 @@
       <c r="J160" s="7"/>
     </row>
     <row r="161" spans="2:10" s="4" customFormat="1">
-      <c r="B161" s="33"/>
+      <c r="B161" s="22"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="38"/>
+      <c r="D161" s="27"/>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
@@ -3393,9 +3493,9 @@
       <c r="J161" s="7"/>
     </row>
     <row r="162" spans="2:10" s="4" customFormat="1">
-      <c r="B162" s="33"/>
+      <c r="B162" s="22"/>
       <c r="C162" s="5"/>
-      <c r="D162" s="38"/>
+      <c r="D162" s="27"/>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
@@ -3404,9 +3504,9 @@
       <c r="J162" s="7"/>
     </row>
     <row r="163" spans="2:10" s="4" customFormat="1">
-      <c r="B163" s="33"/>
+      <c r="B163" s="22"/>
       <c r="C163" s="5"/>
-      <c r="D163" s="38"/>
+      <c r="D163" s="27"/>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
@@ -3415,9 +3515,9 @@
       <c r="J163" s="7"/>
     </row>
     <row r="164" spans="2:10" s="4" customFormat="1">
-      <c r="B164" s="33"/>
+      <c r="B164" s="22"/>
       <c r="C164" s="5"/>
-      <c r="D164" s="38"/>
+      <c r="D164" s="27"/>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
@@ -3426,9 +3526,9 @@
       <c r="J164" s="7"/>
     </row>
     <row r="165" spans="2:10" s="4" customFormat="1">
-      <c r="B165" s="33"/>
+      <c r="B165" s="22"/>
       <c r="C165" s="5"/>
-      <c r="D165" s="38"/>
+      <c r="D165" s="27"/>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
@@ -3437,9 +3537,9 @@
       <c r="J165" s="7"/>
     </row>
     <row r="166" spans="2:10" s="4" customFormat="1">
-      <c r="B166" s="33"/>
+      <c r="B166" s="22"/>
       <c r="C166" s="5"/>
-      <c r="D166" s="38"/>
+      <c r="D166" s="27"/>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
@@ -3448,9 +3548,9 @@
       <c r="J166" s="7"/>
     </row>
     <row r="167" spans="2:10" s="4" customFormat="1">
-      <c r="B167" s="33"/>
+      <c r="B167" s="22"/>
       <c r="C167" s="5"/>
-      <c r="D167" s="38"/>
+      <c r="D167" s="27"/>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
@@ -3459,9 +3559,9 @@
       <c r="J167" s="7"/>
     </row>
     <row r="168" spans="2:10" s="4" customFormat="1">
-      <c r="B168" s="33"/>
+      <c r="B168" s="22"/>
       <c r="C168" s="5"/>
-      <c r="D168" s="38"/>
+      <c r="D168" s="27"/>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
@@ -3470,9 +3570,9 @@
       <c r="J168" s="7"/>
     </row>
     <row r="169" spans="2:10" s="4" customFormat="1">
-      <c r="B169" s="33"/>
+      <c r="B169" s="22"/>
       <c r="C169" s="5"/>
-      <c r="D169" s="38"/>
+      <c r="D169" s="27"/>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
@@ -3481,9 +3581,9 @@
       <c r="J169" s="7"/>
     </row>
     <row r="170" spans="2:10" s="4" customFormat="1">
-      <c r="B170" s="33"/>
+      <c r="B170" s="22"/>
       <c r="C170" s="5"/>
-      <c r="D170" s="38"/>
+      <c r="D170" s="27"/>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
@@ -3492,9 +3592,9 @@
       <c r="J170" s="7"/>
     </row>
     <row r="171" spans="2:10" s="4" customFormat="1">
-      <c r="B171" s="33"/>
+      <c r="B171" s="22"/>
       <c r="C171" s="5"/>
-      <c r="D171" s="38"/>
+      <c r="D171" s="27"/>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
@@ -3503,9 +3603,9 @@
       <c r="J171" s="7"/>
     </row>
     <row r="172" spans="2:10" s="4" customFormat="1">
-      <c r="B172" s="33"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="5"/>
-      <c r="D172" s="38"/>
+      <c r="D172" s="27"/>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
@@ -3514,9 +3614,9 @@
       <c r="J172" s="7"/>
     </row>
     <row r="173" spans="2:10" s="4" customFormat="1">
-      <c r="B173" s="33"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="5"/>
-      <c r="D173" s="38"/>
+      <c r="D173" s="27"/>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
@@ -3525,9 +3625,9 @@
       <c r="J173" s="7"/>
     </row>
     <row r="174" spans="2:10" s="4" customFormat="1">
-      <c r="B174" s="33"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="5"/>
-      <c r="D174" s="38"/>
+      <c r="D174" s="27"/>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
@@ -3536,9 +3636,9 @@
       <c r="J174" s="7"/>
     </row>
     <row r="175" spans="2:10" s="4" customFormat="1">
-      <c r="B175" s="33"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="5"/>
-      <c r="D175" s="38"/>
+      <c r="D175" s="27"/>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
@@ -3547,9 +3647,9 @@
       <c r="J175" s="7"/>
     </row>
     <row r="176" spans="2:10" s="4" customFormat="1">
-      <c r="B176" s="33"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="5"/>
-      <c r="D176" s="38"/>
+      <c r="D176" s="27"/>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
@@ -3558,9 +3658,9 @@
       <c r="J176" s="7"/>
     </row>
     <row r="177" spans="2:10" s="4" customFormat="1">
-      <c r="B177" s="33"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="5"/>
-      <c r="D177" s="38"/>
+      <c r="D177" s="27"/>
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
@@ -3569,9 +3669,9 @@
       <c r="J177" s="7"/>
     </row>
     <row r="178" spans="2:10" s="4" customFormat="1">
-      <c r="B178" s="33"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="5"/>
-      <c r="D178" s="38"/>
+      <c r="D178" s="27"/>
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
@@ -3580,9 +3680,9 @@
       <c r="J178" s="7"/>
     </row>
     <row r="179" spans="2:10" s="4" customFormat="1">
-      <c r="B179" s="33"/>
+      <c r="B179" s="22"/>
       <c r="C179" s="5"/>
-      <c r="D179" s="38"/>
+      <c r="D179" s="27"/>
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
@@ -3591,9 +3691,9 @@
       <c r="J179" s="7"/>
     </row>
     <row r="180" spans="2:10" s="4" customFormat="1">
-      <c r="B180" s="33"/>
+      <c r="B180" s="22"/>
       <c r="C180" s="5"/>
-      <c r="D180" s="38"/>
+      <c r="D180" s="27"/>
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
@@ -3602,9 +3702,9 @@
       <c r="J180" s="7"/>
     </row>
     <row r="181" spans="2:10" s="4" customFormat="1">
-      <c r="B181" s="33"/>
+      <c r="B181" s="22"/>
       <c r="C181" s="5"/>
-      <c r="D181" s="38"/>
+      <c r="D181" s="27"/>
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="7"/>
@@ -3613,9 +3713,9 @@
       <c r="J181" s="7"/>
     </row>
     <row r="182" spans="2:10" s="4" customFormat="1">
-      <c r="B182" s="33"/>
+      <c r="B182" s="22"/>
       <c r="C182" s="5"/>
-      <c r="D182" s="38"/>
+      <c r="D182" s="27"/>
       <c r="E182" s="6"/>
       <c r="F182" s="6"/>
       <c r="G182" s="7"/>
@@ -3624,9 +3724,9 @@
       <c r="J182" s="7"/>
     </row>
     <row r="183" spans="2:10" s="4" customFormat="1">
-      <c r="B183" s="33"/>
+      <c r="B183" s="22"/>
       <c r="C183" s="5"/>
-      <c r="D183" s="38"/>
+      <c r="D183" s="27"/>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="7"/>
@@ -3635,9 +3735,9 @@
       <c r="J183" s="7"/>
     </row>
     <row r="184" spans="2:10" s="4" customFormat="1">
-      <c r="B184" s="33"/>
+      <c r="B184" s="22"/>
       <c r="C184" s="5"/>
-      <c r="D184" s="38"/>
+      <c r="D184" s="27"/>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>
@@ -3646,9 +3746,9 @@
       <c r="J184" s="7"/>
     </row>
     <row r="185" spans="2:10" s="4" customFormat="1">
-      <c r="B185" s="33"/>
+      <c r="B185" s="22"/>
       <c r="C185" s="5"/>
-      <c r="D185" s="38"/>
+      <c r="D185" s="27"/>
       <c r="E185" s="6"/>
       <c r="F185" s="6"/>
       <c r="G185" s="7"/>
@@ -3657,9 +3757,9 @@
       <c r="J185" s="7"/>
     </row>
     <row r="186" spans="2:10" s="4" customFormat="1">
-      <c r="B186" s="33"/>
+      <c r="B186" s="22"/>
       <c r="C186" s="5"/>
-      <c r="D186" s="38"/>
+      <c r="D186" s="27"/>
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="7"/>
@@ -3668,9 +3768,9 @@
       <c r="J186" s="7"/>
     </row>
     <row r="187" spans="2:10" s="4" customFormat="1">
-      <c r="B187" s="33"/>
+      <c r="B187" s="22"/>
       <c r="C187" s="5"/>
-      <c r="D187" s="38"/>
+      <c r="D187" s="27"/>
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="7"/>
@@ -3679,9 +3779,9 @@
       <c r="J187" s="7"/>
     </row>
     <row r="188" spans="2:10" s="4" customFormat="1">
-      <c r="B188" s="33"/>
+      <c r="B188" s="22"/>
       <c r="C188" s="5"/>
-      <c r="D188" s="38"/>
+      <c r="D188" s="27"/>
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="7"/>
@@ -3690,9 +3790,9 @@
       <c r="J188" s="7"/>
     </row>
     <row r="189" spans="2:10" s="4" customFormat="1">
-      <c r="B189" s="33"/>
+      <c r="B189" s="22"/>
       <c r="C189" s="5"/>
-      <c r="D189" s="38"/>
+      <c r="D189" s="27"/>
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="7"/>
@@ -3701,9 +3801,9 @@
       <c r="J189" s="7"/>
     </row>
     <row r="190" spans="2:10" s="4" customFormat="1">
-      <c r="B190" s="33"/>
+      <c r="B190" s="22"/>
       <c r="C190" s="5"/>
-      <c r="D190" s="38"/>
+      <c r="D190" s="27"/>
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="7"/>
@@ -3712,9 +3812,9 @@
       <c r="J190" s="7"/>
     </row>
     <row r="191" spans="2:10" s="4" customFormat="1">
-      <c r="B191" s="33"/>
+      <c r="B191" s="22"/>
       <c r="C191" s="5"/>
-      <c r="D191" s="38"/>
+      <c r="D191" s="27"/>
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
@@ -3723,9 +3823,9 @@
       <c r="J191" s="7"/>
     </row>
     <row r="192" spans="2:10" s="4" customFormat="1">
-      <c r="B192" s="33"/>
+      <c r="B192" s="22"/>
       <c r="C192" s="5"/>
-      <c r="D192" s="38"/>
+      <c r="D192" s="27"/>
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="7"/>
@@ -3734,9 +3834,9 @@
       <c r="J192" s="7"/>
     </row>
     <row r="193" spans="2:10" s="4" customFormat="1">
-      <c r="B193" s="33"/>
+      <c r="B193" s="22"/>
       <c r="C193" s="5"/>
-      <c r="D193" s="38"/>
+      <c r="D193" s="27"/>
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
@@ -3745,9 +3845,9 @@
       <c r="J193" s="7"/>
     </row>
     <row r="194" spans="2:10" s="4" customFormat="1">
-      <c r="B194" s="33"/>
+      <c r="B194" s="22"/>
       <c r="C194" s="5"/>
-      <c r="D194" s="38"/>
+      <c r="D194" s="27"/>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
@@ -3756,9 +3856,9 @@
       <c r="J194" s="7"/>
     </row>
     <row r="195" spans="2:10" s="4" customFormat="1">
-      <c r="B195" s="33"/>
+      <c r="B195" s="22"/>
       <c r="C195" s="5"/>
-      <c r="D195" s="38"/>
+      <c r="D195" s="27"/>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
@@ -3767,9 +3867,9 @@
       <c r="J195" s="7"/>
     </row>
     <row r="196" spans="2:10" s="4" customFormat="1">
-      <c r="B196" s="33"/>
+      <c r="B196" s="22"/>
       <c r="C196" s="5"/>
-      <c r="D196" s="38"/>
+      <c r="D196" s="27"/>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
@@ -3778,9 +3878,9 @@
       <c r="J196" s="7"/>
     </row>
     <row r="197" spans="2:10" s="4" customFormat="1">
-      <c r="B197" s="33"/>
+      <c r="B197" s="22"/>
       <c r="C197" s="5"/>
-      <c r="D197" s="38"/>
+      <c r="D197" s="27"/>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
@@ -3789,9 +3889,9 @@
       <c r="J197" s="7"/>
     </row>
     <row r="198" spans="2:10" s="4" customFormat="1">
-      <c r="B198" s="33"/>
+      <c r="B198" s="22"/>
       <c r="C198" s="5"/>
-      <c r="D198" s="38"/>
+      <c r="D198" s="27"/>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
@@ -3800,9 +3900,9 @@
       <c r="J198" s="7"/>
     </row>
     <row r="199" spans="2:10" s="4" customFormat="1">
-      <c r="B199" s="33"/>
+      <c r="B199" s="22"/>
       <c r="C199" s="5"/>
-      <c r="D199" s="38"/>
+      <c r="D199" s="27"/>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
@@ -3811,9 +3911,9 @@
       <c r="J199" s="7"/>
     </row>
     <row r="200" spans="2:10" s="4" customFormat="1">
-      <c r="B200" s="33"/>
+      <c r="B200" s="22"/>
       <c r="C200" s="5"/>
-      <c r="D200" s="38"/>
+      <c r="D200" s="27"/>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
@@ -3822,9 +3922,9 @@
       <c r="J200" s="7"/>
     </row>
     <row r="201" spans="2:10" s="4" customFormat="1">
-      <c r="B201" s="33"/>
+      <c r="B201" s="22"/>
       <c r="C201" s="5"/>
-      <c r="D201" s="38"/>
+      <c r="D201" s="27"/>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
@@ -3833,9 +3933,9 @@
       <c r="J201" s="7"/>
     </row>
     <row r="202" spans="2:10" s="4" customFormat="1">
-      <c r="B202" s="33"/>
+      <c r="B202" s="22"/>
       <c r="C202" s="5"/>
-      <c r="D202" s="38"/>
+      <c r="D202" s="27"/>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
@@ -3844,9 +3944,9 @@
       <c r="J202" s="7"/>
     </row>
     <row r="203" spans="2:10" s="4" customFormat="1">
-      <c r="B203" s="33"/>
+      <c r="B203" s="22"/>
       <c r="C203" s="5"/>
-      <c r="D203" s="38"/>
+      <c r="D203" s="27"/>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
@@ -3855,9 +3955,9 @@
       <c r="J203" s="7"/>
     </row>
     <row r="204" spans="2:10" s="4" customFormat="1">
-      <c r="B204" s="33"/>
+      <c r="B204" s="22"/>
       <c r="C204" s="5"/>
-      <c r="D204" s="38"/>
+      <c r="D204" s="27"/>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
       <c r="G204" s="7"/>
@@ -3866,9 +3966,9 @@
       <c r="J204" s="7"/>
     </row>
     <row r="205" spans="2:10" s="4" customFormat="1">
-      <c r="B205" s="33"/>
+      <c r="B205" s="22"/>
       <c r="C205" s="5"/>
-      <c r="D205" s="38"/>
+      <c r="D205" s="27"/>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
       <c r="G205" s="7"/>
@@ -3877,9 +3977,9 @@
       <c r="J205" s="7"/>
     </row>
     <row r="206" spans="2:10" s="4" customFormat="1">
-      <c r="B206" s="33"/>
+      <c r="B206" s="22"/>
       <c r="C206" s="5"/>
-      <c r="D206" s="38"/>
+      <c r="D206" s="27"/>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
       <c r="G206" s="7"/>
@@ -3888,9 +3988,9 @@
       <c r="J206" s="7"/>
     </row>
     <row r="207" spans="2:10" s="4" customFormat="1">
-      <c r="B207" s="33"/>
+      <c r="B207" s="22"/>
       <c r="C207" s="5"/>
-      <c r="D207" s="38"/>
+      <c r="D207" s="27"/>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
       <c r="G207" s="7"/>
@@ -3899,9 +3999,9 @@
       <c r="J207" s="7"/>
     </row>
     <row r="208" spans="2:10" s="4" customFormat="1">
-      <c r="B208" s="33"/>
+      <c r="B208" s="22"/>
       <c r="C208" s="5"/>
-      <c r="D208" s="38"/>
+      <c r="D208" s="27"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
       <c r="G208" s="7"/>
@@ -3910,9 +4010,9 @@
       <c r="J208" s="7"/>
     </row>
     <row r="209" spans="2:10" s="4" customFormat="1">
-      <c r="B209" s="33"/>
+      <c r="B209" s="22"/>
       <c r="C209" s="5"/>
-      <c r="D209" s="38"/>
+      <c r="D209" s="27"/>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
       <c r="G209" s="7"/>
@@ -3921,9 +4021,9 @@
       <c r="J209" s="7"/>
     </row>
     <row r="210" spans="2:10" s="4" customFormat="1">
-      <c r="B210" s="33"/>
+      <c r="B210" s="22"/>
       <c r="C210" s="5"/>
-      <c r="D210" s="38"/>
+      <c r="D210" s="27"/>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
       <c r="G210" s="7"/>
@@ -3932,9 +4032,9 @@
       <c r="J210" s="7"/>
     </row>
     <row r="211" spans="2:10" s="4" customFormat="1">
-      <c r="B211" s="33"/>
+      <c r="B211" s="22"/>
       <c r="C211" s="5"/>
-      <c r="D211" s="38"/>
+      <c r="D211" s="27"/>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
       <c r="G211" s="7"/>
@@ -3943,9 +4043,9 @@
       <c r="J211" s="7"/>
     </row>
     <row r="212" spans="2:10" s="4" customFormat="1">
-      <c r="B212" s="33"/>
+      <c r="B212" s="22"/>
       <c r="C212" s="5"/>
-      <c r="D212" s="38"/>
+      <c r="D212" s="27"/>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
       <c r="G212" s="7"/>
@@ -3954,9 +4054,9 @@
       <c r="J212" s="7"/>
     </row>
     <row r="213" spans="2:10" s="4" customFormat="1">
-      <c r="B213" s="33"/>
+      <c r="B213" s="22"/>
       <c r="C213" s="5"/>
-      <c r="D213" s="38"/>
+      <c r="D213" s="27"/>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
       <c r="G213" s="7"/>
@@ -3965,9 +4065,9 @@
       <c r="J213" s="7"/>
     </row>
     <row r="214" spans="2:10" s="4" customFormat="1">
-      <c r="B214" s="33"/>
+      <c r="B214" s="22"/>
       <c r="C214" s="5"/>
-      <c r="D214" s="38"/>
+      <c r="D214" s="27"/>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
       <c r="G214" s="7"/>
@@ -3976,9 +4076,9 @@
       <c r="J214" s="7"/>
     </row>
     <row r="215" spans="2:10" s="4" customFormat="1">
-      <c r="B215" s="33"/>
+      <c r="B215" s="22"/>
       <c r="C215" s="5"/>
-      <c r="D215" s="38"/>
+      <c r="D215" s="27"/>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
       <c r="G215" s="7"/>
@@ -3987,9 +4087,9 @@
       <c r="J215" s="7"/>
     </row>
     <row r="216" spans="2:10" s="4" customFormat="1">
-      <c r="B216" s="33"/>
+      <c r="B216" s="22"/>
       <c r="C216" s="5"/>
-      <c r="D216" s="38"/>
+      <c r="D216" s="27"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
       <c r="G216" s="7"/>
@@ -3998,9 +4098,9 @@
       <c r="J216" s="7"/>
     </row>
     <row r="217" spans="2:10" s="4" customFormat="1">
-      <c r="B217" s="33"/>
+      <c r="B217" s="22"/>
       <c r="C217" s="5"/>
-      <c r="D217" s="38"/>
+      <c r="D217" s="27"/>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
       <c r="G217" s="7"/>
@@ -4009,9 +4109,9 @@
       <c r="J217" s="7"/>
     </row>
     <row r="218" spans="2:10" s="4" customFormat="1">
-      <c r="B218" s="33"/>
+      <c r="B218" s="22"/>
       <c r="C218" s="5"/>
-      <c r="D218" s="38"/>
+      <c r="D218" s="27"/>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
       <c r="G218" s="7"/>
@@ -4020,9 +4120,9 @@
       <c r="J218" s="7"/>
     </row>
     <row r="219" spans="2:10" s="4" customFormat="1">
-      <c r="B219" s="33"/>
+      <c r="B219" s="22"/>
       <c r="C219" s="5"/>
-      <c r="D219" s="38"/>
+      <c r="D219" s="27"/>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
       <c r="G219" s="7"/>
@@ -4031,9 +4131,9 @@
       <c r="J219" s="7"/>
     </row>
     <row r="220" spans="2:10" s="4" customFormat="1">
-      <c r="B220" s="33"/>
+      <c r="B220" s="22"/>
       <c r="C220" s="5"/>
-      <c r="D220" s="38"/>
+      <c r="D220" s="27"/>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
       <c r="G220" s="7"/>
@@ -4042,9 +4142,9 @@
       <c r="J220" s="7"/>
     </row>
     <row r="221" spans="2:10" s="4" customFormat="1">
-      <c r="B221" s="33"/>
+      <c r="B221" s="22"/>
       <c r="C221" s="5"/>
-      <c r="D221" s="38"/>
+      <c r="D221" s="27"/>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
       <c r="G221" s="7"/>
@@ -4053,9 +4153,9 @@
       <c r="J221" s="7"/>
     </row>
     <row r="222" spans="2:10" s="4" customFormat="1">
-      <c r="B222" s="33"/>
+      <c r="B222" s="22"/>
       <c r="C222" s="5"/>
-      <c r="D222" s="38"/>
+      <c r="D222" s="27"/>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
       <c r="G222" s="7"/>
@@ -4064,9 +4164,9 @@
       <c r="J222" s="7"/>
     </row>
     <row r="223" spans="2:10" s="4" customFormat="1">
-      <c r="B223" s="33"/>
+      <c r="B223" s="22"/>
       <c r="C223" s="5"/>
-      <c r="D223" s="38"/>
+      <c r="D223" s="27"/>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
       <c r="G223" s="7"/>
@@ -4075,9 +4175,9 @@
       <c r="J223" s="7"/>
     </row>
     <row r="224" spans="2:10" s="4" customFormat="1">
-      <c r="B224" s="33"/>
+      <c r="B224" s="22"/>
       <c r="C224" s="5"/>
-      <c r="D224" s="38"/>
+      <c r="D224" s="27"/>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
       <c r="G224" s="7"/>
@@ -4086,9 +4186,9 @@
       <c r="J224" s="7"/>
     </row>
     <row r="225" spans="2:10" s="4" customFormat="1">
-      <c r="B225" s="33"/>
+      <c r="B225" s="22"/>
       <c r="C225" s="5"/>
-      <c r="D225" s="38"/>
+      <c r="D225" s="27"/>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
       <c r="G225" s="7"/>
@@ -4097,9 +4197,9 @@
       <c r="J225" s="7"/>
     </row>
     <row r="226" spans="2:10" s="4" customFormat="1">
-      <c r="B226" s="33"/>
+      <c r="B226" s="22"/>
       <c r="C226" s="5"/>
-      <c r="D226" s="38"/>
+      <c r="D226" s="27"/>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
       <c r="G226" s="7"/>
@@ -4108,9 +4208,9 @@
       <c r="J226" s="7"/>
     </row>
     <row r="227" spans="2:10" s="4" customFormat="1">
-      <c r="B227" s="33"/>
+      <c r="B227" s="22"/>
       <c r="C227" s="5"/>
-      <c r="D227" s="38"/>
+      <c r="D227" s="27"/>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
       <c r="G227" s="7"/>
@@ -4119,9 +4219,9 @@
       <c r="J227" s="7"/>
     </row>
     <row r="228" spans="2:10" s="4" customFormat="1">
-      <c r="B228" s="33"/>
+      <c r="B228" s="22"/>
       <c r="C228" s="5"/>
-      <c r="D228" s="38"/>
+      <c r="D228" s="27"/>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
       <c r="G228" s="7"/>
@@ -4130,9 +4230,9 @@
       <c r="J228" s="7"/>
     </row>
     <row r="229" spans="2:10" s="4" customFormat="1">
-      <c r="B229" s="33"/>
+      <c r="B229" s="22"/>
       <c r="C229" s="5"/>
-      <c r="D229" s="38"/>
+      <c r="D229" s="27"/>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
       <c r="G229" s="7"/>
@@ -4141,9 +4241,9 @@
       <c r="J229" s="7"/>
     </row>
     <row r="230" spans="2:10" s="4" customFormat="1">
-      <c r="B230" s="33"/>
+      <c r="B230" s="22"/>
       <c r="C230" s="5"/>
-      <c r="D230" s="38"/>
+      <c r="D230" s="27"/>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
       <c r="G230" s="7"/>
@@ -4152,9 +4252,9 @@
       <c r="J230" s="7"/>
     </row>
     <row r="231" spans="2:10" s="4" customFormat="1">
-      <c r="B231" s="33"/>
+      <c r="B231" s="22"/>
       <c r="C231" s="5"/>
-      <c r="D231" s="38"/>
+      <c r="D231" s="27"/>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
       <c r="G231" s="7"/>
@@ -4163,9 +4263,9 @@
       <c r="J231" s="7"/>
     </row>
     <row r="232" spans="2:10" s="4" customFormat="1">
-      <c r="B232" s="33"/>
+      <c r="B232" s="22"/>
       <c r="C232" s="5"/>
-      <c r="D232" s="38"/>
+      <c r="D232" s="27"/>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
       <c r="G232" s="7"/>
@@ -4174,9 +4274,9 @@
       <c r="J232" s="7"/>
     </row>
     <row r="233" spans="2:10" s="4" customFormat="1">
-      <c r="B233" s="33"/>
+      <c r="B233" s="22"/>
       <c r="C233" s="5"/>
-      <c r="D233" s="38"/>
+      <c r="D233" s="27"/>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
       <c r="G233" s="7"/>
@@ -4185,9 +4285,9 @@
       <c r="J233" s="7"/>
     </row>
     <row r="234" spans="2:10" s="4" customFormat="1">
-      <c r="B234" s="33"/>
+      <c r="B234" s="22"/>
       <c r="C234" s="5"/>
-      <c r="D234" s="38"/>
+      <c r="D234" s="27"/>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
       <c r="G234" s="7"/>
@@ -4196,9 +4296,9 @@
       <c r="J234" s="7"/>
     </row>
     <row r="235" spans="2:10" s="4" customFormat="1">
-      <c r="B235" s="33"/>
+      <c r="B235" s="22"/>
       <c r="C235" s="5"/>
-      <c r="D235" s="38"/>
+      <c r="D235" s="27"/>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
       <c r="G235" s="7"/>
@@ -4207,9 +4307,9 @@
       <c r="J235" s="7"/>
     </row>
     <row r="236" spans="2:10" s="4" customFormat="1">
-      <c r="B236" s="33"/>
+      <c r="B236" s="22"/>
       <c r="C236" s="5"/>
-      <c r="D236" s="38"/>
+      <c r="D236" s="27"/>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
       <c r="G236" s="7"/>
@@ -4218,9 +4318,9 @@
       <c r="J236" s="7"/>
     </row>
     <row r="237" spans="2:10" s="4" customFormat="1">
-      <c r="B237" s="33"/>
+      <c r="B237" s="22"/>
       <c r="C237" s="5"/>
-      <c r="D237" s="38"/>
+      <c r="D237" s="27"/>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
       <c r="G237" s="7"/>
@@ -4229,9 +4329,9 @@
       <c r="J237" s="7"/>
     </row>
     <row r="238" spans="2:10" s="4" customFormat="1">
-      <c r="B238" s="33"/>
+      <c r="B238" s="22"/>
       <c r="C238" s="5"/>
-      <c r="D238" s="38"/>
+      <c r="D238" s="27"/>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
       <c r="G238" s="7"/>
@@ -4240,9 +4340,9 @@
       <c r="J238" s="7"/>
     </row>
     <row r="239" spans="2:10" s="4" customFormat="1">
-      <c r="B239" s="33"/>
+      <c r="B239" s="22"/>
       <c r="C239" s="5"/>
-      <c r="D239" s="38"/>
+      <c r="D239" s="27"/>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
       <c r="G239" s="7"/>
@@ -4251,9 +4351,9 @@
       <c r="J239" s="7"/>
     </row>
     <row r="240" spans="2:10" s="4" customFormat="1">
-      <c r="B240" s="33"/>
+      <c r="B240" s="22"/>
       <c r="C240" s="5"/>
-      <c r="D240" s="38"/>
+      <c r="D240" s="27"/>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
@@ -4262,9 +4362,9 @@
       <c r="J240" s="7"/>
     </row>
     <row r="241" spans="2:10" s="4" customFormat="1">
-      <c r="B241" s="33"/>
+      <c r="B241" s="22"/>
       <c r="C241" s="5"/>
-      <c r="D241" s="38"/>
+      <c r="D241" s="27"/>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
@@ -4273,9 +4373,9 @@
       <c r="J241" s="7"/>
     </row>
     <row r="242" spans="2:10" s="4" customFormat="1">
-      <c r="B242" s="33"/>
+      <c r="B242" s="22"/>
       <c r="C242" s="5"/>
-      <c r="D242" s="38"/>
+      <c r="D242" s="27"/>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
       <c r="G242" s="7"/>
@@ -4284,9 +4384,9 @@
       <c r="J242" s="7"/>
     </row>
     <row r="243" spans="2:10" s="4" customFormat="1">
-      <c r="B243" s="33"/>
+      <c r="B243" s="22"/>
       <c r="C243" s="5"/>
-      <c r="D243" s="38"/>
+      <c r="D243" s="27"/>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
       <c r="G243" s="7"/>
@@ -4295,9 +4395,9 @@
       <c r="J243" s="7"/>
     </row>
     <row r="244" spans="2:10" s="4" customFormat="1">
-      <c r="B244" s="33"/>
+      <c r="B244" s="22"/>
       <c r="C244" s="5"/>
-      <c r="D244" s="38"/>
+      <c r="D244" s="27"/>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
       <c r="G244" s="7"/>
@@ -4306,9 +4406,9 @@
       <c r="J244" s="7"/>
     </row>
     <row r="245" spans="2:10" s="4" customFormat="1">
-      <c r="B245" s="33"/>
+      <c r="B245" s="22"/>
       <c r="C245" s="5"/>
-      <c r="D245" s="38"/>
+      <c r="D245" s="27"/>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
       <c r="G245" s="7"/>
@@ -4317,9 +4417,9 @@
       <c r="J245" s="7"/>
     </row>
     <row r="246" spans="2:10" s="4" customFormat="1">
-      <c r="B246" s="33"/>
+      <c r="B246" s="22"/>
       <c r="C246" s="5"/>
-      <c r="D246" s="38"/>
+      <c r="D246" s="27"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="7"/>
@@ -4328,9 +4428,9 @@
       <c r="J246" s="7"/>
     </row>
     <row r="247" spans="2:10" s="4" customFormat="1">
-      <c r="B247" s="33"/>
+      <c r="B247" s="22"/>
       <c r="C247" s="5"/>
-      <c r="D247" s="38"/>
+      <c r="D247" s="27"/>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
       <c r="G247" s="7"/>
@@ -4339,9 +4439,9 @@
       <c r="J247" s="7"/>
     </row>
     <row r="248" spans="2:10" s="4" customFormat="1">
-      <c r="B248" s="33"/>
+      <c r="B248" s="22"/>
       <c r="C248" s="5"/>
-      <c r="D248" s="38"/>
+      <c r="D248" s="27"/>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
       <c r="G248" s="7"/>
@@ -4350,9 +4450,9 @@
       <c r="J248" s="7"/>
     </row>
     <row r="249" spans="2:10" s="4" customFormat="1">
-      <c r="B249" s="33"/>
+      <c r="B249" s="22"/>
       <c r="C249" s="5"/>
-      <c r="D249" s="38"/>
+      <c r="D249" s="27"/>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
       <c r="G249" s="7"/>
@@ -4361,9 +4461,9 @@
       <c r="J249" s="7"/>
     </row>
     <row r="250" spans="2:10" s="4" customFormat="1">
-      <c r="B250" s="33"/>
+      <c r="B250" s="22"/>
       <c r="C250" s="5"/>
-      <c r="D250" s="38"/>
+      <c r="D250" s="27"/>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
       <c r="G250" s="7"/>
@@ -4372,9 +4472,9 @@
       <c r="J250" s="7"/>
     </row>
     <row r="251" spans="2:10" s="4" customFormat="1">
-      <c r="B251" s="33"/>
+      <c r="B251" s="22"/>
       <c r="C251" s="5"/>
-      <c r="D251" s="38"/>
+      <c r="D251" s="27"/>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
       <c r="G251" s="7"/>
@@ -4383,9 +4483,9 @@
       <c r="J251" s="7"/>
     </row>
     <row r="252" spans="2:10" s="4" customFormat="1">
-      <c r="B252" s="33"/>
+      <c r="B252" s="22"/>
       <c r="C252" s="5"/>
-      <c r="D252" s="38"/>
+      <c r="D252" s="27"/>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
       <c r="G252" s="7"/>
@@ -4394,9 +4494,9 @@
       <c r="J252" s="7"/>
     </row>
     <row r="253" spans="2:10" s="4" customFormat="1">
-      <c r="B253" s="33"/>
+      <c r="B253" s="22"/>
       <c r="C253" s="5"/>
-      <c r="D253" s="38"/>
+      <c r="D253" s="27"/>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
       <c r="G253" s="7"/>
@@ -4405,9 +4505,9 @@
       <c r="J253" s="7"/>
     </row>
     <row r="254" spans="2:10" s="4" customFormat="1">
-      <c r="B254" s="33"/>
+      <c r="B254" s="22"/>
       <c r="C254" s="5"/>
-      <c r="D254" s="38"/>
+      <c r="D254" s="27"/>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
       <c r="G254" s="7"/>
@@ -4416,9 +4516,9 @@
       <c r="J254" s="7"/>
     </row>
     <row r="255" spans="2:10" s="4" customFormat="1">
-      <c r="B255" s="33"/>
+      <c r="B255" s="22"/>
       <c r="C255" s="5"/>
-      <c r="D255" s="38"/>
+      <c r="D255" s="27"/>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
       <c r="G255" s="7"/>
@@ -4427,9 +4527,9 @@
       <c r="J255" s="7"/>
     </row>
     <row r="256" spans="2:10" s="4" customFormat="1">
-      <c r="B256" s="33"/>
+      <c r="B256" s="22"/>
       <c r="C256" s="5"/>
-      <c r="D256" s="38"/>
+      <c r="D256" s="27"/>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
       <c r="G256" s="7"/>
@@ -4438,9 +4538,9 @@
       <c r="J256" s="7"/>
     </row>
     <row r="257" spans="2:10" s="4" customFormat="1">
-      <c r="B257" s="33"/>
+      <c r="B257" s="22"/>
       <c r="C257" s="5"/>
-      <c r="D257" s="38"/>
+      <c r="D257" s="27"/>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
       <c r="G257" s="7"/>
@@ -4449,9 +4549,9 @@
       <c r="J257" s="7"/>
     </row>
     <row r="258" spans="2:10" s="4" customFormat="1">
-      <c r="B258" s="33"/>
+      <c r="B258" s="22"/>
       <c r="C258" s="5"/>
-      <c r="D258" s="38"/>
+      <c r="D258" s="27"/>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
       <c r="G258" s="7"/>
@@ -4460,9 +4560,9 @@
       <c r="J258" s="7"/>
     </row>
     <row r="259" spans="2:10" s="4" customFormat="1">
-      <c r="B259" s="33"/>
+      <c r="B259" s="22"/>
       <c r="C259" s="5"/>
-      <c r="D259" s="38"/>
+      <c r="D259" s="27"/>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
       <c r="G259" s="7"/>
@@ -4471,9 +4571,9 @@
       <c r="J259" s="7"/>
     </row>
     <row r="260" spans="2:10" s="4" customFormat="1">
-      <c r="B260" s="33"/>
+      <c r="B260" s="22"/>
       <c r="C260" s="5"/>
-      <c r="D260" s="38"/>
+      <c r="D260" s="27"/>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
       <c r="G260" s="7"/>
@@ -4482,9 +4582,9 @@
       <c r="J260" s="7"/>
     </row>
     <row r="261" spans="2:10" s="4" customFormat="1">
-      <c r="B261" s="33"/>
+      <c r="B261" s="22"/>
       <c r="C261" s="5"/>
-      <c r="D261" s="38"/>
+      <c r="D261" s="27"/>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
       <c r="G261" s="7"/>
@@ -4493,9 +4593,9 @@
       <c r="J261" s="7"/>
     </row>
     <row r="262" spans="2:10" s="4" customFormat="1">
-      <c r="B262" s="33"/>
+      <c r="B262" s="22"/>
       <c r="C262" s="5"/>
-      <c r="D262" s="38"/>
+      <c r="D262" s="27"/>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
       <c r="G262" s="7"/>
@@ -4504,9 +4604,9 @@
       <c r="J262" s="7"/>
     </row>
     <row r="263" spans="2:10" s="4" customFormat="1">
-      <c r="B263" s="33"/>
+      <c r="B263" s="22"/>
       <c r="C263" s="5"/>
-      <c r="D263" s="38"/>
+      <c r="D263" s="27"/>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
       <c r="G263" s="7"/>
@@ -4515,9 +4615,9 @@
       <c r="J263" s="7"/>
     </row>
     <row r="264" spans="2:10" s="4" customFormat="1">
-      <c r="B264" s="33"/>
+      <c r="B264" s="22"/>
       <c r="C264" s="5"/>
-      <c r="D264" s="38"/>
+      <c r="D264" s="27"/>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
       <c r="G264" s="7"/>
@@ -4526,9 +4626,9 @@
       <c r="J264" s="7"/>
     </row>
     <row r="265" spans="2:10" s="4" customFormat="1">
-      <c r="B265" s="33"/>
+      <c r="B265" s="22"/>
       <c r="C265" s="5"/>
-      <c r="D265" s="38"/>
+      <c r="D265" s="27"/>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
       <c r="G265" s="7"/>
@@ -4537,9 +4637,9 @@
       <c r="J265" s="7"/>
     </row>
     <row r="266" spans="2:10" s="4" customFormat="1">
-      <c r="B266" s="33"/>
+      <c r="B266" s="22"/>
       <c r="C266" s="5"/>
-      <c r="D266" s="38"/>
+      <c r="D266" s="27"/>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
       <c r="G266" s="7"/>
@@ -4548,9 +4648,9 @@
       <c r="J266" s="7"/>
     </row>
     <row r="267" spans="2:10" s="4" customFormat="1">
-      <c r="B267" s="33"/>
+      <c r="B267" s="22"/>
       <c r="C267" s="5"/>
-      <c r="D267" s="38"/>
+      <c r="D267" s="27"/>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
       <c r="G267" s="7"/>
@@ -4559,9 +4659,9 @@
       <c r="J267" s="7"/>
     </row>
     <row r="268" spans="2:10" s="4" customFormat="1">
-      <c r="B268" s="33"/>
+      <c r="B268" s="22"/>
       <c r="C268" s="5"/>
-      <c r="D268" s="38"/>
+      <c r="D268" s="27"/>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
       <c r="G268" s="7"/>
@@ -4570,9 +4670,9 @@
       <c r="J268" s="7"/>
     </row>
     <row r="269" spans="2:10" s="4" customFormat="1">
-      <c r="B269" s="33"/>
+      <c r="B269" s="22"/>
       <c r="C269" s="5"/>
-      <c r="D269" s="38"/>
+      <c r="D269" s="27"/>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
       <c r="G269" s="7"/>
@@ -4581,9 +4681,9 @@
       <c r="J269" s="7"/>
     </row>
     <row r="270" spans="2:10" s="4" customFormat="1">
-      <c r="B270" s="33"/>
+      <c r="B270" s="22"/>
       <c r="C270" s="5"/>
-      <c r="D270" s="38"/>
+      <c r="D270" s="27"/>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="7"/>
@@ -4592,9 +4692,9 @@
       <c r="J270" s="7"/>
     </row>
     <row r="271" spans="2:10" s="4" customFormat="1">
-      <c r="B271" s="33"/>
+      <c r="B271" s="22"/>
       <c r="C271" s="5"/>
-      <c r="D271" s="38"/>
+      <c r="D271" s="27"/>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
       <c r="G271" s="7"/>
@@ -4603,9 +4703,9 @@
       <c r="J271" s="7"/>
     </row>
     <row r="272" spans="2:10" s="4" customFormat="1">
-      <c r="B272" s="33"/>
+      <c r="B272" s="22"/>
       <c r="C272" s="5"/>
-      <c r="D272" s="38"/>
+      <c r="D272" s="27"/>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
       <c r="G272" s="7"/>
@@ -4614,9 +4714,9 @@
       <c r="J272" s="7"/>
     </row>
     <row r="273" spans="2:240" s="4" customFormat="1">
-      <c r="B273" s="33"/>
+      <c r="B273" s="22"/>
       <c r="C273" s="5"/>
-      <c r="D273" s="38"/>
+      <c r="D273" s="27"/>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
       <c r="G273" s="7"/>
@@ -4625,9 +4725,9 @@
       <c r="J273" s="7"/>
     </row>
     <row r="274" spans="2:240" s="4" customFormat="1">
-      <c r="B274" s="33"/>
+      <c r="B274" s="22"/>
       <c r="C274" s="5"/>
-      <c r="D274" s="38"/>
+      <c r="D274" s="27"/>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
       <c r="G274" s="7"/>
@@ -4636,9 +4736,9 @@
       <c r="J274" s="7"/>
     </row>
     <row r="275" spans="2:240" s="4" customFormat="1">
-      <c r="B275" s="33"/>
+      <c r="B275" s="22"/>
       <c r="C275" s="5"/>
-      <c r="D275" s="38"/>
+      <c r="D275" s="27"/>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
       <c r="G275" s="7"/>
@@ -4647,9 +4747,9 @@
       <c r="J275" s="7"/>
     </row>
     <row r="276" spans="2:240" s="4" customFormat="1">
-      <c r="B276" s="33"/>
+      <c r="B276" s="22"/>
       <c r="C276" s="5"/>
-      <c r="D276" s="38"/>
+      <c r="D276" s="27"/>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
       <c r="G276" s="7"/>
@@ -4658,9 +4758,9 @@
       <c r="J276" s="7"/>
     </row>
     <row r="277" spans="2:240" s="4" customFormat="1">
-      <c r="B277" s="33"/>
+      <c r="B277" s="22"/>
       <c r="C277" s="5"/>
-      <c r="D277" s="38"/>
+      <c r="D277" s="27"/>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
       <c r="G277" s="7"/>
@@ -4669,9 +4769,9 @@
       <c r="J277" s="7"/>
     </row>
     <row r="278" spans="2:240" s="4" customFormat="1">
-      <c r="B278" s="33"/>
+      <c r="B278" s="22"/>
       <c r="C278" s="5"/>
-      <c r="D278" s="38"/>
+      <c r="D278" s="27"/>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
       <c r="G278" s="7"/>
@@ -4680,9 +4780,9 @@
       <c r="J278" s="7"/>
     </row>
     <row r="279" spans="2:240" s="4" customFormat="1">
-      <c r="B279" s="33"/>
+      <c r="B279" s="22"/>
       <c r="C279" s="5"/>
-      <c r="D279" s="38"/>
+      <c r="D279" s="27"/>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
       <c r="G279" s="7"/>
@@ -4691,9 +4791,9 @@
       <c r="J279" s="7"/>
     </row>
     <row r="280" spans="2:240" s="4" customFormat="1">
-      <c r="B280" s="33"/>
+      <c r="B280" s="22"/>
       <c r="C280" s="5"/>
-      <c r="D280" s="38"/>
+      <c r="D280" s="27"/>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
       <c r="G280" s="7"/>
@@ -4702,9 +4802,9 @@
       <c r="J280" s="7"/>
     </row>
     <row r="281" spans="2:240" s="4" customFormat="1">
-      <c r="B281" s="33"/>
+      <c r="B281" s="22"/>
       <c r="C281" s="5"/>
-      <c r="D281" s="38"/>
+      <c r="D281" s="27"/>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
       <c r="G281" s="7"/>
@@ -4713,9 +4813,9 @@
       <c r="J281" s="7"/>
     </row>
     <row r="282" spans="2:240" s="4" customFormat="1">
-      <c r="B282" s="33"/>
+      <c r="B282" s="22"/>
       <c r="C282" s="5"/>
-      <c r="D282" s="38"/>
+      <c r="D282" s="27"/>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
       <c r="G282" s="7"/>

--- a/trunk/documentation/1.0 Requirements/Traceability Matrix Template.xlsx
+++ b/trunk/documentation/1.0 Requirements/Traceability Matrix Template.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Program</t>
   </si>
@@ -140,9 +140,6 @@
     <t>0.7</t>
   </si>
   <si>
-    <t>0.0,0.1</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -157,13 +154,28 @@
 Miguel</t>
   </si>
   <si>
-    <t>Esteban</t>
+    <t>Sistemas Operativos</t>
   </si>
   <si>
-    <t>Miguel</t>
+    <t>Implementation</t>
   </si>
   <si>
-    <t>Sistemas Operativos</t>
+    <t>Start12.c</t>
+  </si>
+  <si>
+    <t>mcu.c,mcu.h,mcu_cfg.h</t>
+  </si>
+  <si>
+    <t>gpt.c,gpt.h,gpt_cfg.c,gpt_cfg.h</t>
+  </si>
+  <si>
+    <t>Generated by the tool</t>
+  </si>
+  <si>
+    <t>0.0,0.1,0.2,0.3</t>
+  </si>
+  <si>
+    <t>Sergio,Esteban,Miguel</t>
   </si>
 </sst>
 </file>
@@ -430,7 +442,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -504,6 +516,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -537,14 +558,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,29 +567,6 @@
     <cellStyle name="Personal" xfId="1"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1047,6 +1039,29 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -1108,21 +1123,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:L51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A7:L51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A7:L51"/>
   <tableColumns count="12">
-    <tableColumn id="1" name=" " dataDxfId="12"/>
-    <tableColumn id="2" name="Req. ID" dataDxfId="11"/>
-    <tableColumn id="3" name="Req. Type" dataDxfId="10"/>
-    <tableColumn id="4" name="Requirements" dataDxfId="9"/>
-    <tableColumn id="5" name="Esteban" dataDxfId="8"/>
-    <tableColumn id="6" name="Comments" dataDxfId="7"/>
-    <tableColumn id="7" name="Document Reference" dataDxfId="6"/>
-    <tableColumn id="8" name="Comments2" dataDxfId="5"/>
-    <tableColumn id="9" name="File Reference" dataDxfId="4"/>
-    <tableColumn id="11" name="Comments3" dataDxfId="3"/>
-    <tableColumn id="12" name="Test Case Reference" dataDxfId="2"/>
-    <tableColumn id="13" name="Result" dataDxfId="1"/>
+    <tableColumn id="1" name=" " dataDxfId="11"/>
+    <tableColumn id="2" name="Req. ID" dataDxfId="10"/>
+    <tableColumn id="3" name="Req. Type" dataDxfId="9"/>
+    <tableColumn id="4" name="Requirements" dataDxfId="8"/>
+    <tableColumn id="5" name="Implementation" dataDxfId="7"/>
+    <tableColumn id="6" name="Comments" dataDxfId="6"/>
+    <tableColumn id="7" name="Document Reference" dataDxfId="5"/>
+    <tableColumn id="8" name="Comments2" dataDxfId="4"/>
+    <tableColumn id="9" name="File Reference" dataDxfId="3"/>
+    <tableColumn id="11" name="Comments3" dataDxfId="2"/>
+    <tableColumn id="12" name="Test Case Reference" dataDxfId="1"/>
+    <tableColumn id="13" name="Result" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1420,7 +1435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" outlineLevelCol="1"/>
@@ -1453,14 +1468,14 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="21.6" customHeight="1" thickTop="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1470,14 +1485,14 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1487,9 +1502,9 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
@@ -1502,14 +1517,14 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>44</v>
+      <c r="E5" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1519,30 +1534,30 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="41" t="s">
-        <v>44</v>
+      <c r="E6" s="30" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="39"/>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="16.5" thickTop="1">
       <c r="A7" s="16" t="s">
@@ -1594,21 +1609,21 @@
         <v>28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A9" s="12"/>
       <c r="B9" s="19" t="s">
         <v>33</v>
@@ -1619,22 +1634,28 @@
       <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F9" s="14" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="I9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="K9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1">
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A10" s="12"/>
       <c r="B10" s="19" t="s">
         <v>34</v>
@@ -1645,20 +1666,24 @@
       <c r="D10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="I10" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="J10" s="15"/>
       <c r="K10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1">
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A11" s="12"/>
       <c r="B11" s="19" t="s">
         <v>35</v>
@@ -1669,20 +1694,24 @@
       <c r="D11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="I11" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="J11" s="15"/>
       <c r="K11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1">
+    </row>
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A12" s="12"/>
       <c r="B12" s="19" t="s">
         <v>36</v>
@@ -1693,20 +1722,24 @@
       <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="I12" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="J12" s="15"/>
       <c r="K12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="4" customFormat="1">
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A13" s="12"/>
       <c r="B13" s="19" t="s">
         <v>37</v>
@@ -1717,20 +1750,24 @@
       <c r="D13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="I13" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="J13" s="15"/>
       <c r="K13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L13" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="30.75">
+    </row>
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A14" s="12"/>
       <c r="B14" s="19" t="s">
         <v>38</v>
@@ -1741,20 +1778,24 @@
       <c r="D14" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="I14" s="43" t="s">
+        <v>47</v>
+      </c>
       <c r="J14" s="15"/>
       <c r="K14" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="4" customFormat="1">
+    </row>
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="31.5">
       <c r="A15" s="12"/>
       <c r="B15" s="19" t="s">
         <v>39</v>
@@ -1765,17 +1806,21 @@
       <c r="D15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="I15" s="43" t="s">
+        <v>48</v>
+      </c>
       <c r="J15" s="15"/>
       <c r="K15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="31" t="s">
         <v>40</v>
-      </c>
-      <c r="L15" s="42" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1">
